--- a/data/pca/factorExposure/factorExposure_2014-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.006164022931098505</v>
+        <v>-0.01593543510584077</v>
       </c>
       <c r="C2">
-        <v>0.09070061063416854</v>
+        <v>-0.06937677732466585</v>
       </c>
       <c r="D2">
-        <v>-0.01938080093765994</v>
+        <v>-0.0263114745281197</v>
       </c>
       <c r="E2">
-        <v>-0.1732066313070877</v>
+        <v>0.02474226588981015</v>
       </c>
       <c r="F2">
-        <v>0.1937612460670364</v>
+        <v>0.1634987985439397</v>
       </c>
       <c r="G2">
-        <v>0.08937220610435113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.02907447763370211</v>
+      </c>
+      <c r="H2">
+        <v>-0.05672849244263302</v>
+      </c>
+      <c r="I2">
+        <v>-0.008622749307242829</v>
+      </c>
+      <c r="J2">
+        <v>-0.1647599897179654</v>
+      </c>
+      <c r="K2">
+        <v>-0.1041777792042654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03296743858485388</v>
+        <v>-0.02097937335297213</v>
       </c>
       <c r="C4">
-        <v>0.1723656758812234</v>
+        <v>-0.1526984961580628</v>
       </c>
       <c r="D4">
-        <v>0.02173569975232158</v>
+        <v>-0.0602351196646139</v>
       </c>
       <c r="E4">
-        <v>-0.08959323669836429</v>
+        <v>-0.04575422419382925</v>
       </c>
       <c r="F4">
-        <v>-0.03162456737550544</v>
+        <v>0.07809771023136923</v>
       </c>
       <c r="G4">
-        <v>0.02013295724635191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01538593085159458</v>
+      </c>
+      <c r="H4">
+        <v>-0.1120992226835612</v>
+      </c>
+      <c r="I4">
+        <v>-0.02273846354872545</v>
+      </c>
+      <c r="J4">
+        <v>-0.1618375884462384</v>
+      </c>
+      <c r="K4">
+        <v>0.08347770451092201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03184452116321916</v>
+        <v>-0.04045959589206282</v>
       </c>
       <c r="C6">
-        <v>0.06824445714643</v>
+        <v>-0.08417641068860754</v>
       </c>
       <c r="D6">
-        <v>0.0360256377675125</v>
+        <v>-0.02192707045768829</v>
       </c>
       <c r="E6">
-        <v>-0.07458034340698358</v>
+        <v>0.03310567200940236</v>
       </c>
       <c r="F6">
-        <v>0.01439066424741557</v>
+        <v>0.05157590775089738</v>
       </c>
       <c r="G6">
-        <v>-0.01227083621889327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03605157825953709</v>
+      </c>
+      <c r="H6">
+        <v>-0.03253737357445184</v>
+      </c>
+      <c r="I6">
+        <v>0.07623255560270639</v>
+      </c>
+      <c r="J6">
+        <v>-0.05011441112764512</v>
+      </c>
+      <c r="K6">
+        <v>-0.04952845703583178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.009608497912077815</v>
+        <v>-0.01308043994223131</v>
       </c>
       <c r="C7">
-        <v>0.05275746904299154</v>
+        <v>-0.06820343960593099</v>
       </c>
       <c r="D7">
-        <v>0.01326740896140012</v>
+        <v>-0.02105551787694731</v>
       </c>
       <c r="E7">
-        <v>-0.0629170552462785</v>
+        <v>-0.02260024521248102</v>
       </c>
       <c r="F7">
-        <v>-0.01566559123124379</v>
+        <v>0.006830992230394983</v>
       </c>
       <c r="G7">
-        <v>0.02751948718675966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05450769112385385</v>
+      </c>
+      <c r="H7">
+        <v>-0.1025452983693023</v>
+      </c>
+      <c r="I7">
+        <v>0.004912504363723104</v>
+      </c>
+      <c r="J7">
+        <v>-0.03235867534372076</v>
+      </c>
+      <c r="K7">
+        <v>-0.008769389631230123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.006198753099023773</v>
+        <v>0.0006587588871723327</v>
       </c>
       <c r="C8">
-        <v>0.07213411912376005</v>
+        <v>-0.06628708097241087</v>
       </c>
       <c r="D8">
-        <v>0.01743223032855934</v>
+        <v>-0.04237059976265188</v>
       </c>
       <c r="E8">
-        <v>-0.0855735669165846</v>
+        <v>-0.007141519018255202</v>
       </c>
       <c r="F8">
-        <v>0.02552284467824341</v>
+        <v>0.06022810941851284</v>
       </c>
       <c r="G8">
-        <v>0.06221855145932711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02440800134468255</v>
+      </c>
+      <c r="H8">
+        <v>-0.06374412686897887</v>
+      </c>
+      <c r="I8">
+        <v>-0.001555726174141743</v>
+      </c>
+      <c r="J8">
+        <v>-0.005753984299181632</v>
+      </c>
+      <c r="K8">
+        <v>0.0003494756525021375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01651543643707896</v>
+        <v>-0.01341415176213879</v>
       </c>
       <c r="C9">
-        <v>0.1381348015613933</v>
+        <v>-0.1142137601512342</v>
       </c>
       <c r="D9">
-        <v>0.02753545894109648</v>
+        <v>-0.04148653480472406</v>
       </c>
       <c r="E9">
-        <v>-0.05160616239891251</v>
+        <v>-0.01143459190010712</v>
       </c>
       <c r="F9">
-        <v>-0.02092754712284394</v>
+        <v>0.03263254724112195</v>
       </c>
       <c r="G9">
-        <v>-0.02196211717934293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.008056977928893672</v>
+      </c>
+      <c r="H9">
+        <v>-0.09660495513466517</v>
+      </c>
+      <c r="I9">
+        <v>0.01367085383655364</v>
+      </c>
+      <c r="J9">
+        <v>-0.08019575451242765</v>
+      </c>
+      <c r="K9">
+        <v>0.05859234511798937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2705537795803316</v>
+        <v>-0.2497857432876066</v>
       </c>
       <c r="C10">
-        <v>-0.102377047378826</v>
+        <v>0.09858662469937853</v>
       </c>
       <c r="D10">
-        <v>-0.02343926690846483</v>
+        <v>0.005570787585247936</v>
       </c>
       <c r="E10">
-        <v>0.02221888492324627</v>
+        <v>0.01408977289206174</v>
       </c>
       <c r="F10">
-        <v>-0.02865480169914455</v>
+        <v>0.002827091806297736</v>
       </c>
       <c r="G10">
-        <v>-0.0173335420506422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02111712557955899</v>
+      </c>
+      <c r="H10">
+        <v>-0.04336807871558356</v>
+      </c>
+      <c r="I10">
+        <v>-0.1727231523155239</v>
+      </c>
+      <c r="J10">
+        <v>0.08889837334117293</v>
+      </c>
+      <c r="K10">
+        <v>0.06515446755507019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01089660314766484</v>
+        <v>-0.01566579897384713</v>
       </c>
       <c r="C11">
-        <v>0.06998140910733135</v>
+        <v>-0.08368036012915227</v>
       </c>
       <c r="D11">
-        <v>0.01902691668795671</v>
+        <v>-0.03334901884505971</v>
       </c>
       <c r="E11">
-        <v>-0.02791678618162521</v>
+        <v>-0.007999754011463045</v>
       </c>
       <c r="F11">
-        <v>-0.05649216336018834</v>
+        <v>-0.006252233885190714</v>
       </c>
       <c r="G11">
-        <v>-0.03485132136543279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02171260731955625</v>
+      </c>
+      <c r="H11">
+        <v>-0.03639584510887613</v>
+      </c>
+      <c r="I11">
+        <v>0.01527307141953062</v>
+      </c>
+      <c r="J11">
+        <v>0.02125826819233259</v>
+      </c>
+      <c r="K11">
+        <v>0.04117646724968393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.005418601457126187</v>
+        <v>-0.01567078771489051</v>
       </c>
       <c r="C12">
-        <v>0.0630508257595703</v>
+        <v>-0.06243273620237626</v>
       </c>
       <c r="D12">
-        <v>0.02367431522609547</v>
+        <v>-0.02082888751544193</v>
       </c>
       <c r="E12">
-        <v>-0.01969983618169985</v>
+        <v>0.01855324119106377</v>
       </c>
       <c r="F12">
-        <v>-0.02846478610592049</v>
+        <v>-0.003995797093173783</v>
       </c>
       <c r="G12">
-        <v>-0.06288005986215096</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03213405750845183</v>
+      </c>
+      <c r="H12">
+        <v>-0.03359969148071026</v>
+      </c>
+      <c r="I12">
+        <v>0.01098129022567637</v>
+      </c>
+      <c r="J12">
+        <v>0.006596254922568048</v>
+      </c>
+      <c r="K12">
+        <v>0.03938594208123247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02638615122391143</v>
+        <v>-0.005771668416706353</v>
       </c>
       <c r="C13">
-        <v>0.1062420135598421</v>
+        <v>-0.1113796528344343</v>
       </c>
       <c r="D13">
-        <v>0.0287101522985025</v>
+        <v>-0.03484822750275125</v>
       </c>
       <c r="E13">
-        <v>-0.1315953222725534</v>
+        <v>0.09739707602476598</v>
       </c>
       <c r="F13">
-        <v>-0.02447757396278832</v>
+        <v>0.1410788746410191</v>
       </c>
       <c r="G13">
-        <v>-0.1197967985419968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1045631888407879</v>
+      </c>
+      <c r="H13">
+        <v>-0.1310027915587124</v>
+      </c>
+      <c r="I13">
+        <v>-0.1818586028678399</v>
+      </c>
+      <c r="J13">
+        <v>0.1915104455507272</v>
+      </c>
+      <c r="K13">
+        <v>-0.1197188868118693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01086426456650501</v>
+        <v>-0.01794641450746109</v>
       </c>
       <c r="C14">
-        <v>0.05876262202298775</v>
+        <v>-0.07228406958621134</v>
       </c>
       <c r="D14">
-        <v>0.0173152360022601</v>
+        <v>-0.04463759440140825</v>
       </c>
       <c r="E14">
-        <v>-0.05485625589907109</v>
+        <v>0.04181491456483235</v>
       </c>
       <c r="F14">
-        <v>0.0002227813251251831</v>
+        <v>0.02279132365505047</v>
       </c>
       <c r="G14">
-        <v>-0.04848122233346264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07632350171412722</v>
+      </c>
+      <c r="H14">
+        <v>-0.2059454605517781</v>
+      </c>
+      <c r="I14">
+        <v>0.04079926404733242</v>
+      </c>
+      <c r="J14">
+        <v>0.1265166949082509</v>
+      </c>
+      <c r="K14">
+        <v>-0.1228049451646692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.006014357600628026</v>
+        <v>-0.001025801772390886</v>
       </c>
       <c r="C15">
-        <v>0.08731369156402323</v>
+        <v>-0.07754433682078682</v>
       </c>
       <c r="D15">
-        <v>0.01669356570508013</v>
+        <v>-0.03084475018249618</v>
       </c>
       <c r="E15">
-        <v>-0.1025233462133591</v>
+        <v>-0.009575266752791601</v>
       </c>
       <c r="F15">
-        <v>-0.005058536945958598</v>
+        <v>0.03319016370736928</v>
       </c>
       <c r="G15">
-        <v>-0.007173646703931476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.04650830278658568</v>
+      </c>
+      <c r="H15">
+        <v>-0.08548991021506426</v>
+      </c>
+      <c r="I15">
+        <v>0.03119004658735181</v>
+      </c>
+      <c r="J15">
+        <v>0.05370593451169491</v>
+      </c>
+      <c r="K15">
+        <v>0.002779813242842602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01063564221033432</v>
+        <v>-0.01501177599850551</v>
       </c>
       <c r="C16">
-        <v>0.06677263816764728</v>
+        <v>-0.06668383609570919</v>
       </c>
       <c r="D16">
-        <v>0.01164340577911261</v>
+        <v>-0.02483842820509961</v>
       </c>
       <c r="E16">
-        <v>-0.02264200172056203</v>
+        <v>-0.00274379995828078</v>
       </c>
       <c r="F16">
-        <v>-0.03009852463212746</v>
+        <v>-0.003117845325157284</v>
       </c>
       <c r="G16">
-        <v>-0.03369824043294951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.01958703840089834</v>
+      </c>
+      <c r="H16">
+        <v>-0.02713908884456303</v>
+      </c>
+      <c r="I16">
+        <v>0.01336184282987461</v>
+      </c>
+      <c r="J16">
+        <v>0.004864676236176579</v>
+      </c>
+      <c r="K16">
+        <v>0.02825828295192695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01058475823487436</v>
+        <v>-0.01267662453487536</v>
       </c>
       <c r="C20">
-        <v>0.08286294212910984</v>
+        <v>-0.08373646251914575</v>
       </c>
       <c r="D20">
-        <v>0.001678460056336929</v>
+        <v>-0.02062067620310931</v>
       </c>
       <c r="E20">
-        <v>-0.05501199373167329</v>
+        <v>-0.02853001341958061</v>
       </c>
       <c r="F20">
-        <v>-0.07059111958941744</v>
+        <v>-0.0006173988539358737</v>
       </c>
       <c r="G20">
-        <v>-0.04093672615753623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04924480505222417</v>
+      </c>
+      <c r="H20">
+        <v>-0.07246555657119375</v>
+      </c>
+      <c r="I20">
+        <v>0.01962117475499564</v>
+      </c>
+      <c r="J20">
+        <v>-0.01439369618286957</v>
+      </c>
+      <c r="K20">
+        <v>0.0153084479994941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.001869463579021992</v>
+        <v>-0.01364445172994238</v>
       </c>
       <c r="C21">
-        <v>0.09470698709004943</v>
+        <v>-0.07925851274382749</v>
       </c>
       <c r="D21">
-        <v>-0.03070487296309481</v>
+        <v>-0.02279463043461604</v>
       </c>
       <c r="E21">
-        <v>-0.0364357786316277</v>
+        <v>0.07749440217328703</v>
       </c>
       <c r="F21">
-        <v>0.03705743626922244</v>
+        <v>0.03326036130833014</v>
       </c>
       <c r="G21">
-        <v>-0.03844358723351003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.002354062995917577</v>
+      </c>
+      <c r="H21">
+        <v>-0.1542000582861582</v>
+      </c>
+      <c r="I21">
+        <v>-0.0352962787911222</v>
+      </c>
+      <c r="J21">
+        <v>0.05063357718707746</v>
+      </c>
+      <c r="K21">
+        <v>-0.002166779820869616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05012781329096787</v>
+        <v>-0.005705420499736677</v>
       </c>
       <c r="C22">
-        <v>0.1507659123205088</v>
+        <v>-0.1601364545102084</v>
       </c>
       <c r="D22">
-        <v>-0.1194118898019875</v>
+        <v>-0.007636851263380331</v>
       </c>
       <c r="E22">
-        <v>-0.2572810225015376</v>
+        <v>-0.1810731724000073</v>
       </c>
       <c r="F22">
-        <v>0.0565215787282116</v>
+        <v>0.4872061861699933</v>
       </c>
       <c r="G22">
-        <v>0.2962084891876516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.08694287223374041</v>
+      </c>
+      <c r="H22">
+        <v>0.3068953076997712</v>
+      </c>
+      <c r="I22">
+        <v>-0.02540628543320957</v>
+      </c>
+      <c r="J22">
+        <v>0.2177734514112029</v>
+      </c>
+      <c r="K22">
+        <v>0.03784960478882646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04985203661422549</v>
+        <v>-0.01067563029954682</v>
       </c>
       <c r="C23">
-        <v>0.1514334054933981</v>
+        <v>-0.1639880405886509</v>
       </c>
       <c r="D23">
-        <v>-0.1191440146321387</v>
+        <v>-0.006400952775735011</v>
       </c>
       <c r="E23">
-        <v>-0.2537594360173968</v>
+        <v>-0.1736263373465687</v>
       </c>
       <c r="F23">
-        <v>0.05599123536743991</v>
+        <v>0.4719566219319639</v>
       </c>
       <c r="G23">
-        <v>0.2940130740518022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.08271732145110533</v>
+      </c>
+      <c r="H23">
+        <v>0.2851263258053984</v>
+      </c>
+      <c r="I23">
+        <v>-0.01920760122529955</v>
+      </c>
+      <c r="J23">
+        <v>0.2053407439242449</v>
+      </c>
+      <c r="K23">
+        <v>0.04531800366385191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.004557968186953298</v>
+        <v>-0.01579408899753527</v>
       </c>
       <c r="C24">
-        <v>0.07861035049618764</v>
+        <v>-0.07552311523720906</v>
       </c>
       <c r="D24">
-        <v>0.03522806733040137</v>
+        <v>-0.037932669636582</v>
       </c>
       <c r="E24">
-        <v>-0.02692166411755892</v>
+        <v>-0.00490793304340372</v>
       </c>
       <c r="F24">
-        <v>-0.04152388030902155</v>
+        <v>-0.006255970086417102</v>
       </c>
       <c r="G24">
-        <v>-0.04849411191723253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02976262896678716</v>
+      </c>
+      <c r="H24">
+        <v>-0.04695352207297836</v>
+      </c>
+      <c r="I24">
+        <v>0.01441385602634956</v>
+      </c>
+      <c r="J24">
+        <v>0.009283389854072713</v>
+      </c>
+      <c r="K24">
+        <v>0.04375118621006981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.00723041406272543</v>
+        <v>-0.02025681352473312</v>
       </c>
       <c r="C25">
-        <v>0.06967778653934056</v>
+        <v>-0.07253511530397279</v>
       </c>
       <c r="D25">
-        <v>0.007899069956054402</v>
+        <v>-0.02550547301217316</v>
       </c>
       <c r="E25">
-        <v>-0.02464754435484021</v>
+        <v>-0.006871557684521233</v>
       </c>
       <c r="F25">
-        <v>-0.04892855248110548</v>
+        <v>-0.002310394969742035</v>
       </c>
       <c r="G25">
-        <v>-0.04137026824166137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02997106047442835</v>
+      </c>
+      <c r="H25">
+        <v>-0.03751638423679768</v>
+      </c>
+      <c r="I25">
+        <v>0.002974079804938133</v>
+      </c>
+      <c r="J25">
+        <v>0.02322394391614507</v>
+      </c>
+      <c r="K25">
+        <v>0.03384782712574021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.003885048856615</v>
+        <v>-0.02284545520544444</v>
       </c>
       <c r="C26">
-        <v>0.06044101261899128</v>
+        <v>-0.06247618204095384</v>
       </c>
       <c r="D26">
-        <v>0.04637904295993207</v>
+        <v>-0.05998319353744991</v>
       </c>
       <c r="E26">
-        <v>-0.03020988663196609</v>
+        <v>0.0001316889877390653</v>
       </c>
       <c r="F26">
-        <v>0.0003046361451903269</v>
+        <v>-0.01710868628220587</v>
       </c>
       <c r="G26">
-        <v>-0.03121927317394166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.001340928172001859</v>
+      </c>
+      <c r="H26">
+        <v>-0.1034931885861616</v>
+      </c>
+      <c r="I26">
+        <v>0.04008661754944626</v>
+      </c>
+      <c r="J26">
+        <v>-0.1015036806236415</v>
+      </c>
+      <c r="K26">
+        <v>0.07768413429085724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3762127754205756</v>
+        <v>-0.3188597854267501</v>
       </c>
       <c r="C28">
-        <v>-0.1160585215307595</v>
+        <v>0.1135041174012911</v>
       </c>
       <c r="D28">
-        <v>-0.01994955216320134</v>
+        <v>0.02903758644714764</v>
       </c>
       <c r="E28">
-        <v>0.1223911603480975</v>
+        <v>-0.00279507219880187</v>
       </c>
       <c r="F28">
-        <v>0.0134154083036469</v>
+        <v>0.01400881361453013</v>
       </c>
       <c r="G28">
-        <v>-0.02978446032253818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1106185363297874</v>
+      </c>
+      <c r="H28">
+        <v>-0.05891026114119757</v>
+      </c>
+      <c r="I28">
+        <v>-0.2112871168648461</v>
+      </c>
+      <c r="J28">
+        <v>-0.001919058456894417</v>
+      </c>
+      <c r="K28">
+        <v>-0.03012190748355047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01388814618908249</v>
+        <v>-0.01324292484763679</v>
       </c>
       <c r="C29">
-        <v>0.05969946545943396</v>
+        <v>-0.07610601390413992</v>
       </c>
       <c r="D29">
-        <v>0.02803596503382558</v>
+        <v>-0.04922927213889451</v>
       </c>
       <c r="E29">
-        <v>-0.08544559000689345</v>
+        <v>0.04778550029016593</v>
       </c>
       <c r="F29">
-        <v>-0.02419468062355875</v>
+        <v>0.04139892687142835</v>
       </c>
       <c r="G29">
-        <v>-0.07245614979325815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.122597839307289</v>
+      </c>
+      <c r="H29">
+        <v>-0.2889220562002823</v>
+      </c>
+      <c r="I29">
+        <v>0.0445518716592942</v>
+      </c>
+      <c r="J29">
+        <v>0.1888502310942757</v>
+      </c>
+      <c r="K29">
+        <v>-0.2242340634039771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03612746027301675</v>
+        <v>-0.02800371141368326</v>
       </c>
       <c r="C30">
-        <v>0.1805018642856656</v>
+        <v>-0.1498068893766873</v>
       </c>
       <c r="D30">
-        <v>0.03954886224551474</v>
+        <v>-0.05212032054418268</v>
       </c>
       <c r="E30">
-        <v>-0.06152304622494562</v>
+        <v>-0.02513689891017278</v>
       </c>
       <c r="F30">
-        <v>-0.003256301818867872</v>
+        <v>0.05932375131895262</v>
       </c>
       <c r="G30">
-        <v>0.03648277135998002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.008214130033916758</v>
+      </c>
+      <c r="H30">
+        <v>-0.03198044174094036</v>
+      </c>
+      <c r="I30">
+        <v>0.03968001376376565</v>
+      </c>
+      <c r="J30">
+        <v>-0.09707095438443948</v>
+      </c>
+      <c r="K30">
+        <v>0.0298318990539372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.004237079851576284</v>
+        <v>-0.01088635189857471</v>
       </c>
       <c r="C31">
-        <v>0.09006278097894423</v>
+        <v>-0.09279583489873315</v>
       </c>
       <c r="D31">
-        <v>0.043830963501187</v>
+        <v>-0.04142081436492309</v>
       </c>
       <c r="E31">
-        <v>0.05013062554188163</v>
+        <v>0.005709412794226675</v>
       </c>
       <c r="F31">
-        <v>0.01304067666865848</v>
+        <v>-0.02109863144842094</v>
       </c>
       <c r="G31">
-        <v>-0.003571301458842597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.05387503359593906</v>
+      </c>
+      <c r="H31">
+        <v>-0.02948570685076957</v>
+      </c>
+      <c r="I31">
+        <v>0.00669619415843892</v>
+      </c>
+      <c r="J31">
+        <v>0.0312135956608016</v>
+      </c>
+      <c r="K31">
+        <v>0.0328564436599964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.02975791123737937</v>
+        <v>-0.02308580644285451</v>
       </c>
       <c r="C32">
-        <v>0.08919790098217008</v>
+        <v>-0.06469856493099355</v>
       </c>
       <c r="D32">
-        <v>-0.009491970655729057</v>
+        <v>-0.02052010451348361</v>
       </c>
       <c r="E32">
-        <v>-0.1655013190760582</v>
+        <v>0.05225899007218725</v>
       </c>
       <c r="F32">
-        <v>0.05512468855300695</v>
+        <v>0.1197730724710609</v>
       </c>
       <c r="G32">
-        <v>-0.03386747637558258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04454347705538213</v>
+      </c>
+      <c r="H32">
+        <v>-0.1761998605631803</v>
+      </c>
+      <c r="I32">
+        <v>-0.2386217658178473</v>
+      </c>
+      <c r="J32">
+        <v>0.002729800255314749</v>
+      </c>
+      <c r="K32">
+        <v>-0.1800118784172857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01330917899339516</v>
+        <v>-0.01578593130033974</v>
       </c>
       <c r="C33">
-        <v>0.0913836959465936</v>
+        <v>-0.1077998460368749</v>
       </c>
       <c r="D33">
-        <v>0.04281662043572097</v>
+        <v>-0.04153614884828712</v>
       </c>
       <c r="E33">
-        <v>-0.04016122085330797</v>
+        <v>-0.009816786517016613</v>
       </c>
       <c r="F33">
-        <v>-0.01026547010112116</v>
+        <v>0.02169731442795128</v>
       </c>
       <c r="G33">
-        <v>-0.03174718043489762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02907342307456032</v>
+      </c>
+      <c r="H33">
+        <v>-0.05929274183452233</v>
+      </c>
+      <c r="I33">
+        <v>-0.01411561047638697</v>
+      </c>
+      <c r="J33">
+        <v>0.003407809794087685</v>
+      </c>
+      <c r="K33">
+        <v>0.03064662588261995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.001536368626748372</v>
+        <v>-0.0156834154302491</v>
       </c>
       <c r="C34">
-        <v>0.0543105274632921</v>
+        <v>-0.05342191128402532</v>
       </c>
       <c r="D34">
-        <v>0.01634685409317178</v>
+        <v>-0.01933410601180713</v>
       </c>
       <c r="E34">
-        <v>-0.02531100910429887</v>
+        <v>0.002821481221947199</v>
       </c>
       <c r="F34">
-        <v>-0.01675660778244162</v>
+        <v>-0.004085001650832948</v>
       </c>
       <c r="G34">
-        <v>-0.03831792645122599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02390977579783766</v>
+      </c>
+      <c r="H34">
+        <v>-0.01216351375597689</v>
+      </c>
+      <c r="I34">
+        <v>0.005729540300823929</v>
+      </c>
+      <c r="J34">
+        <v>0.009691700532190267</v>
+      </c>
+      <c r="K34">
+        <v>0.03910294572903125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002917835812373581</v>
+        <v>-0.008393926907865192</v>
       </c>
       <c r="C35">
-        <v>0.01395432602357389</v>
+        <v>-0.03930185468552577</v>
       </c>
       <c r="D35">
-        <v>0.001435693088127648</v>
+        <v>-0.01851606770007061</v>
       </c>
       <c r="E35">
-        <v>-0.02239432831342986</v>
+        <v>0.01051388998018431</v>
       </c>
       <c r="F35">
-        <v>-0.01026237988932575</v>
+        <v>0.01588831034001981</v>
       </c>
       <c r="G35">
-        <v>-0.01755271088648084</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04547663783987433</v>
+      </c>
+      <c r="H35">
+        <v>-0.1449865163188684</v>
+      </c>
+      <c r="I35">
+        <v>0.003671955461097597</v>
+      </c>
+      <c r="J35">
+        <v>0.1542934356732634</v>
+      </c>
+      <c r="K35">
+        <v>-0.1008741455549202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.007048653648103143</v>
+        <v>-0.01488801909776679</v>
       </c>
       <c r="C36">
-        <v>0.0516602695885463</v>
+        <v>-0.04837390292870862</v>
       </c>
       <c r="D36">
-        <v>0.04334801958147029</v>
+        <v>-0.04597767212255285</v>
       </c>
       <c r="E36">
-        <v>-0.02815826751506889</v>
+        <v>-0.001188428884861339</v>
       </c>
       <c r="F36">
-        <v>-0.00457182308803857</v>
+        <v>0.003685176151658847</v>
       </c>
       <c r="G36">
-        <v>-0.01838506425299312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.007170820095904652</v>
+      </c>
+      <c r="H36">
+        <v>-0.07191946748806048</v>
+      </c>
+      <c r="I36">
+        <v>0.01649812482764653</v>
+      </c>
+      <c r="J36">
+        <v>-0.03859724645959897</v>
+      </c>
+      <c r="K36">
+        <v>0.05481971862069365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02546180090082629</v>
+        <v>-0.01236452511666291</v>
       </c>
       <c r="C38">
-        <v>0.05151051844058374</v>
+        <v>-0.06161227687972328</v>
       </c>
       <c r="D38">
-        <v>0.02781918549800735</v>
+        <v>-0.03699202391834757</v>
       </c>
       <c r="E38">
-        <v>-0.02710540848733888</v>
+        <v>-0.03549112365740467</v>
       </c>
       <c r="F38">
-        <v>-0.02520240170407512</v>
+        <v>0.009348963317636357</v>
       </c>
       <c r="G38">
-        <v>0.0006178264401280752</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.006216029896463135</v>
+      </c>
+      <c r="H38">
+        <v>-0.08762744223869913</v>
+      </c>
+      <c r="I38">
+        <v>-0.05322139502337863</v>
+      </c>
+      <c r="J38">
+        <v>0.03729232594732079</v>
+      </c>
+      <c r="K38">
+        <v>0.06195541953759891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002148655020406364</v>
+        <v>-0.01570457005005696</v>
       </c>
       <c r="C39">
-        <v>0.1389710392372577</v>
+        <v>-0.130761395181735</v>
       </c>
       <c r="D39">
-        <v>0.0244685970526092</v>
+        <v>-0.04985953784309641</v>
       </c>
       <c r="E39">
-        <v>-0.06844039445814244</v>
+        <v>0.001752880852183684</v>
       </c>
       <c r="F39">
-        <v>-0.04518837115090465</v>
+        <v>0.0127682013398436</v>
       </c>
       <c r="G39">
-        <v>-0.04795751345783681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04846833564994982</v>
+      </c>
+      <c r="H39">
+        <v>-0.04968050840539759</v>
+      </c>
+      <c r="I39">
+        <v>0.06711626385989423</v>
+      </c>
+      <c r="J39">
+        <v>-0.02243986561871916</v>
+      </c>
+      <c r="K39">
+        <v>0.04338717498115156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01004951881468097</v>
+        <v>-0.01477278866757931</v>
       </c>
       <c r="C40">
-        <v>0.03878213067623322</v>
+        <v>-0.06271442698409474</v>
       </c>
       <c r="D40">
-        <v>0.02256521504380694</v>
+        <v>-0.03426134142941697</v>
       </c>
       <c r="E40">
-        <v>-0.1497250517463926</v>
+        <v>0.01894357515021955</v>
       </c>
       <c r="F40">
-        <v>-0.006537866853355155</v>
+        <v>0.07434544091701907</v>
       </c>
       <c r="G40">
-        <v>-0.01178584125762896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1200756709880486</v>
+      </c>
+      <c r="H40">
+        <v>-0.04680144383133274</v>
+      </c>
+      <c r="I40">
+        <v>-0.01933675924939368</v>
+      </c>
+      <c r="J40">
+        <v>0.2601058221419949</v>
+      </c>
+      <c r="K40">
+        <v>0.1117379709536505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.006591943912676515</v>
+        <v>-0.02030407971520844</v>
       </c>
       <c r="C41">
-        <v>0.02023152060236586</v>
+        <v>-0.04790280878793204</v>
       </c>
       <c r="D41">
-        <v>0.004298443321575744</v>
+        <v>-0.01534844301627241</v>
       </c>
       <c r="E41">
-        <v>0.02870110570248487</v>
+        <v>4.692371107354892e-05</v>
       </c>
       <c r="F41">
-        <v>0.008376244423089277</v>
+        <v>-0.02437561072162683</v>
       </c>
       <c r="G41">
-        <v>0.01505445139058344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0009217958013679606</v>
+      </c>
+      <c r="H41">
+        <v>-0.02802326356354758</v>
+      </c>
+      <c r="I41">
+        <v>-0.03277165587603452</v>
+      </c>
+      <c r="J41">
+        <v>0.05492902090013687</v>
+      </c>
+      <c r="K41">
+        <v>0.006710147583665754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002038230393297732</v>
+        <v>-0.0163708181851787</v>
       </c>
       <c r="C43">
-        <v>0.02027035656905402</v>
+        <v>-0.04470563717304624</v>
       </c>
       <c r="D43">
-        <v>0.01005246586712757</v>
+        <v>-0.02847134866476391</v>
       </c>
       <c r="E43">
-        <v>-0.0008553371903708613</v>
+        <v>-0.01413203682708954</v>
       </c>
       <c r="F43">
-        <v>-0.02022479508243543</v>
+        <v>-0.01055894305751948</v>
       </c>
       <c r="G43">
-        <v>0.00615572107552659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006487128366701103</v>
+      </c>
+      <c r="H43">
+        <v>-0.0459794007862027</v>
+      </c>
+      <c r="I43">
+        <v>-0.004305925019936707</v>
+      </c>
+      <c r="J43">
+        <v>0.04280794201072097</v>
+      </c>
+      <c r="K43">
+        <v>-5.966558670738366e-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02385718805251826</v>
+        <v>-0.01042490719199165</v>
       </c>
       <c r="C44">
-        <v>0.08272749145075328</v>
+        <v>-0.09059373632860569</v>
       </c>
       <c r="D44">
-        <v>0.001114454067967429</v>
+        <v>-0.04969479904915972</v>
       </c>
       <c r="E44">
-        <v>-0.09173104163762789</v>
+        <v>-0.03489828027139637</v>
       </c>
       <c r="F44">
-        <v>-0.03009235414230572</v>
+        <v>0.07154278676417565</v>
       </c>
       <c r="G44">
-        <v>0.02207582617648625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04105529190798256</v>
+      </c>
+      <c r="H44">
+        <v>-0.0509585205121053</v>
+      </c>
+      <c r="I44">
+        <v>0.05339305031516572</v>
+      </c>
+      <c r="J44">
+        <v>-0.05976546616004345</v>
+      </c>
+      <c r="K44">
+        <v>-0.01353478406200675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.001859671841659224</v>
+        <v>-0.002265580943953258</v>
       </c>
       <c r="C46">
-        <v>0.06176085662733924</v>
+        <v>-0.06231143337285257</v>
       </c>
       <c r="D46">
-        <v>0.03281244959865374</v>
+        <v>-0.02700206702612167</v>
       </c>
       <c r="E46">
-        <v>-0.0586188538022929</v>
+        <v>0.009984020031592473</v>
       </c>
       <c r="F46">
-        <v>-0.02117454464681088</v>
+        <v>-0.0002333924056715697</v>
       </c>
       <c r="G46">
-        <v>-0.03671140044697973</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04060567637739944</v>
+      </c>
+      <c r="H46">
+        <v>-0.1050494041325292</v>
+      </c>
+      <c r="I46">
+        <v>0.008464893200297523</v>
+      </c>
+      <c r="J46">
+        <v>0.08466571082934821</v>
+      </c>
+      <c r="K46">
+        <v>-0.0460518602118896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.0003625830298543765</v>
+        <v>-0.01928689600390662</v>
       </c>
       <c r="C47">
-        <v>0.1092997578645092</v>
+        <v>-0.09288495195796584</v>
       </c>
       <c r="D47">
-        <v>0.0363798584381699</v>
+        <v>-0.0424594458169409</v>
       </c>
       <c r="E47">
-        <v>0.06164462439475007</v>
+        <v>0.01676527489719766</v>
       </c>
       <c r="F47">
-        <v>0.03183656334352995</v>
+        <v>-0.03479563709270224</v>
       </c>
       <c r="G47">
-        <v>-0.03648810597239351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02230368834362447</v>
+      </c>
+      <c r="H47">
+        <v>-0.06797924488245273</v>
+      </c>
+      <c r="I47">
+        <v>-0.03150113291415824</v>
+      </c>
+      <c r="J47">
+        <v>0.02904859691329176</v>
+      </c>
+      <c r="K47">
+        <v>0.02720453701756056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.0126641173842401</v>
+        <v>-0.02140395471258882</v>
       </c>
       <c r="C48">
-        <v>0.05301642730493116</v>
+        <v>-0.05551649015286252</v>
       </c>
       <c r="D48">
-        <v>0.05759220364403362</v>
+        <v>-0.05385891443478478</v>
       </c>
       <c r="E48">
-        <v>-0.01243886636584948</v>
+        <v>-0.005846639844170852</v>
       </c>
       <c r="F48">
-        <v>-0.01244665925456945</v>
+        <v>-0.001747472734999889</v>
       </c>
       <c r="G48">
-        <v>-0.01646141518064694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002581803504612605</v>
+      </c>
+      <c r="H48">
+        <v>-0.1022825602928837</v>
+      </c>
+      <c r="I48">
+        <v>0.02749487323549007</v>
+      </c>
+      <c r="J48">
+        <v>-0.08456378425359562</v>
+      </c>
+      <c r="K48">
+        <v>0.06920424826812838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005602322285666926</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02277515638037971</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002078623708363078</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.003248577881093763</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.0324692929025085</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03666012096273559</v>
+      </c>
+      <c r="H49">
+        <v>0.02272087611444327</v>
+      </c>
+      <c r="I49">
+        <v>0.04450638355147232</v>
+      </c>
+      <c r="J49">
+        <v>-0.02611675254202935</v>
+      </c>
+      <c r="K49">
+        <v>0.03498496833568079</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.002295843444308741</v>
+        <v>-0.01179067752700771</v>
       </c>
       <c r="C50">
-        <v>0.08790180344406523</v>
+        <v>-0.08593221634863754</v>
       </c>
       <c r="D50">
-        <v>0.02556857576900328</v>
+        <v>-0.02659163979967812</v>
       </c>
       <c r="E50">
-        <v>0.01848555290582194</v>
+        <v>-0.001283636039544154</v>
       </c>
       <c r="F50">
-        <v>0.006965788277032557</v>
+        <v>-0.007757984560692627</v>
       </c>
       <c r="G50">
-        <v>0.01802465641388541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03406238723513504</v>
+      </c>
+      <c r="H50">
+        <v>-0.05901624533463378</v>
+      </c>
+      <c r="I50">
+        <v>-0.04376077197049615</v>
+      </c>
+      <c r="J50">
+        <v>0.0236341554867808</v>
+      </c>
+      <c r="K50">
+        <v>0.01356458088564846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.001517274701978853</v>
+        <v>0.006213797571528044</v>
       </c>
       <c r="C51">
-        <v>0.0721197829641651</v>
+        <v>-0.0387552985387699</v>
       </c>
       <c r="D51">
-        <v>-0.01317942751268739</v>
+        <v>-0.01963843560945456</v>
       </c>
       <c r="E51">
-        <v>-0.09275201751311943</v>
+        <v>0.002881581245316757</v>
       </c>
       <c r="F51">
-        <v>-0.001926099651729544</v>
+        <v>0.04093011228550785</v>
       </c>
       <c r="G51">
-        <v>0.03122502723064379</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02133695482997152</v>
+      </c>
+      <c r="H51">
+        <v>-0.09689734636336778</v>
+      </c>
+      <c r="I51">
+        <v>0.01676176199069035</v>
+      </c>
+      <c r="J51">
+        <v>-0.1151008222678453</v>
+      </c>
+      <c r="K51">
+        <v>0.007896365401260191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04457452762696539</v>
+        <v>-0.05569550511678218</v>
       </c>
       <c r="C53">
-        <v>0.1416140871057187</v>
+        <v>-0.1354050960569168</v>
       </c>
       <c r="D53">
-        <v>0.05807469852119402</v>
+        <v>-0.05008705920681669</v>
       </c>
       <c r="E53">
-        <v>0.1184380228527035</v>
+        <v>0.02000331312810181</v>
       </c>
       <c r="F53">
-        <v>-0.02521540623249791</v>
+        <v>-0.07974995985735098</v>
       </c>
       <c r="G53">
-        <v>-0.01436353353825581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06392313955150154</v>
+      </c>
+      <c r="H53">
+        <v>0.02716959979982739</v>
+      </c>
+      <c r="I53">
+        <v>-0.04355295246047339</v>
+      </c>
+      <c r="J53">
+        <v>0.0106762130003542</v>
+      </c>
+      <c r="K53">
+        <v>0.06213776307410655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01368089067259862</v>
+        <v>-0.01748365294267521</v>
       </c>
       <c r="C54">
-        <v>0.07011637740252372</v>
+        <v>-0.07654324269878715</v>
       </c>
       <c r="D54">
-        <v>0.006230556012309722</v>
+        <v>-0.008879915589594736</v>
       </c>
       <c r="E54">
-        <v>0.006921204181971823</v>
+        <v>0.005579336713711688</v>
       </c>
       <c r="F54">
-        <v>-0.02253207068902935</v>
+        <v>-0.01379130273035423</v>
       </c>
       <c r="G54">
-        <v>-0.0105516896857072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01460832524054946</v>
+      </c>
+      <c r="H54">
+        <v>-0.05945239321013667</v>
+      </c>
+      <c r="I54">
+        <v>0.01935809680397622</v>
+      </c>
+      <c r="J54">
+        <v>0.01744522009443677</v>
+      </c>
+      <c r="K54">
+        <v>-0.009969125379375112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.02921777450093015</v>
+        <v>-0.03161539277996726</v>
       </c>
       <c r="C55">
-        <v>0.09836090504515511</v>
+        <v>-0.09107664364116969</v>
       </c>
       <c r="D55">
-        <v>0.05647848719268415</v>
+        <v>-0.04976229599430108</v>
       </c>
       <c r="E55">
-        <v>0.06223635664724751</v>
+        <v>0.009981016561670428</v>
       </c>
       <c r="F55">
-        <v>0.001715697952875819</v>
+        <v>-0.06195163680129645</v>
       </c>
       <c r="G55">
-        <v>-0.02925247949940309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03209200757752235</v>
+      </c>
+      <c r="H55">
+        <v>0.01940335681109493</v>
+      </c>
+      <c r="I55">
+        <v>0.01078340798100893</v>
+      </c>
+      <c r="J55">
+        <v>-0.001829159602413511</v>
+      </c>
+      <c r="K55">
+        <v>0.04608890655847289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03304031641487588</v>
+        <v>-0.04211356173120141</v>
       </c>
       <c r="C56">
-        <v>0.1889987770660833</v>
+        <v>-0.1651384793682974</v>
       </c>
       <c r="D56">
-        <v>0.05802904246145499</v>
+        <v>-0.0748172733978292</v>
       </c>
       <c r="E56">
-        <v>0.1546571184551382</v>
+        <v>0.04743333145521084</v>
       </c>
       <c r="F56">
-        <v>0.02879593536501699</v>
+        <v>-0.1151267176809939</v>
       </c>
       <c r="G56">
-        <v>-0.01025586066620258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1321322137843486</v>
+      </c>
+      <c r="H56">
+        <v>0.04184569593440115</v>
+      </c>
+      <c r="I56">
+        <v>-0.02863790380482609</v>
+      </c>
+      <c r="J56">
+        <v>-0.02352947228767346</v>
+      </c>
+      <c r="K56">
+        <v>0.04543098955268396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03102753710871374</v>
+        <v>-0.0181321716255722</v>
       </c>
       <c r="C58">
-        <v>0.253297800666318</v>
+        <v>-0.1790308864727995</v>
       </c>
       <c r="D58">
-        <v>-0.1050882940417533</v>
+        <v>-0.02884174789610342</v>
       </c>
       <c r="E58">
-        <v>-0.227218774871634</v>
+        <v>-0.09315221936205639</v>
       </c>
       <c r="F58">
-        <v>0.01274008615335311</v>
+        <v>0.3101526501916316</v>
       </c>
       <c r="G58">
-        <v>0.3748187135292206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1367555812578619</v>
+      </c>
+      <c r="H58">
+        <v>-0.03229344952971787</v>
+      </c>
+      <c r="I58">
+        <v>-0.0178458740737379</v>
+      </c>
+      <c r="J58">
+        <v>-0.4102110420178166</v>
+      </c>
+      <c r="K58">
+        <v>-0.2096984686525566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2813447868517573</v>
+        <v>-0.2873106908020125</v>
       </c>
       <c r="C59">
-        <v>-0.01511592511680175</v>
+        <v>0.042692186083259</v>
       </c>
       <c r="D59">
-        <v>-0.04552112224404432</v>
+        <v>0.007552956251047172</v>
       </c>
       <c r="E59">
-        <v>-0.03042549270419696</v>
+        <v>0.01380986397288089</v>
       </c>
       <c r="F59">
-        <v>0.05006916625756429</v>
+        <v>0.04311784164644635</v>
       </c>
       <c r="G59">
-        <v>-0.03945747469992805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002731600618087613</v>
+      </c>
+      <c r="H59">
+        <v>0.02409069273069886</v>
+      </c>
+      <c r="I59">
+        <v>-0.03363579989632652</v>
+      </c>
+      <c r="J59">
+        <v>0.02109020681506168</v>
+      </c>
+      <c r="K59">
+        <v>0.01997301066514959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1240362150434245</v>
+        <v>-0.1509444747253036</v>
       </c>
       <c r="C60">
-        <v>0.1383817154383476</v>
+        <v>-0.1522097931775022</v>
       </c>
       <c r="D60">
-        <v>0.03580809894534265</v>
+        <v>-0.03171583017132203</v>
       </c>
       <c r="E60">
-        <v>-0.07170031460567297</v>
+        <v>0.06479225048615898</v>
       </c>
       <c r="F60">
-        <v>-0.1183349584212879</v>
+        <v>-0.05621555561474369</v>
       </c>
       <c r="G60">
-        <v>-0.2903028327692875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2759971374810585</v>
+      </c>
+      <c r="H60">
+        <v>0.2356968067332688</v>
+      </c>
+      <c r="I60">
+        <v>0.02757413006289608</v>
+      </c>
+      <c r="J60">
+        <v>-0.007047043113013583</v>
+      </c>
+      <c r="K60">
+        <v>-0.08361767782469537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.003808546717187376</v>
+        <v>-0.01853101427037965</v>
       </c>
       <c r="C61">
-        <v>0.09537183052299368</v>
+        <v>-0.1010953356394461</v>
       </c>
       <c r="D61">
-        <v>0.04172217301957917</v>
+        <v>-0.04877900532575021</v>
       </c>
       <c r="E61">
-        <v>-0.02543255614703408</v>
+        <v>0.01095334434371482</v>
       </c>
       <c r="F61">
-        <v>-0.04156450116019453</v>
+        <v>-0.02263028097681561</v>
       </c>
       <c r="G61">
-        <v>-0.07347067241181235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04249166589045972</v>
+      </c>
+      <c r="H61">
+        <v>-0.05812165316834152</v>
+      </c>
+      <c r="I61">
+        <v>0.03385053126635731</v>
+      </c>
+      <c r="J61">
+        <v>0.01507383527631711</v>
+      </c>
+      <c r="K61">
+        <v>0.04075427731626188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002813385765374695</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.008388782752307429</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001912908588842086</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.005749489696647517</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01630624689963948</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02265038004583742</v>
+      </c>
+      <c r="H62">
+        <v>0.0003990729039949589</v>
+      </c>
+      <c r="I62">
+        <v>0.004822995086927091</v>
+      </c>
+      <c r="J62">
+        <v>0.005672086173390215</v>
+      </c>
+      <c r="K62">
+        <v>0.01956917537746455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.006992197176255273</v>
+        <v>-0.02450916245293549</v>
       </c>
       <c r="C63">
-        <v>0.06967625743561005</v>
+        <v>-0.07141547456802658</v>
       </c>
       <c r="D63">
-        <v>0.02501989046767298</v>
+        <v>-0.05532061490493301</v>
       </c>
       <c r="E63">
-        <v>-0.008811252540223715</v>
+        <v>0.007118126892029111</v>
       </c>
       <c r="F63">
-        <v>-0.02851062014583766</v>
+        <v>-0.01383606677242684</v>
       </c>
       <c r="G63">
-        <v>-0.02098229176939688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01516993855459857</v>
+      </c>
+      <c r="H63">
+        <v>-0.06432696218072015</v>
+      </c>
+      <c r="I63">
+        <v>0.01191380779508664</v>
+      </c>
+      <c r="J63">
+        <v>0.01315877635317503</v>
+      </c>
+      <c r="K63">
+        <v>0.06322322812118752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002537093299377762</v>
+        <v>-0.01399036311657098</v>
       </c>
       <c r="C64">
-        <v>0.09512053883900271</v>
+        <v>-0.09352767234288872</v>
       </c>
       <c r="D64">
-        <v>0.06679555305257356</v>
+        <v>-0.03211568920151906</v>
       </c>
       <c r="E64">
-        <v>-0.03572355203453779</v>
+        <v>-0.04169754988732912</v>
       </c>
       <c r="F64">
-        <v>-0.02077872096972781</v>
+        <v>0.03090226062081535</v>
       </c>
       <c r="G64">
-        <v>-0.01546534985474181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04249402000749687</v>
+      </c>
+      <c r="H64">
+        <v>-0.04576300315631265</v>
+      </c>
+      <c r="I64">
+        <v>0.02576092933313477</v>
+      </c>
+      <c r="J64">
+        <v>0.02087800101372678</v>
+      </c>
+      <c r="K64">
+        <v>0.1132726301492179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02339494539597394</v>
+        <v>-0.03155532387001558</v>
       </c>
       <c r="C65">
-        <v>0.06480486157864065</v>
+        <v>-0.08760928878611679</v>
       </c>
       <c r="D65">
-        <v>0.01916518728885739</v>
+        <v>-0.01182901102646616</v>
       </c>
       <c r="E65">
-        <v>-0.08476613471046256</v>
+        <v>-0.02983317228882332</v>
       </c>
       <c r="F65">
-        <v>-0.03495306161671387</v>
+        <v>0.02619398717502582</v>
       </c>
       <c r="G65">
-        <v>-0.02958571871341265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1163322688189681</v>
+      </c>
+      <c r="H65">
+        <v>0.006021661356937581</v>
+      </c>
+      <c r="I65">
+        <v>0.07818236792493491</v>
+      </c>
+      <c r="J65">
+        <v>-0.07502697362028002</v>
+      </c>
+      <c r="K65">
+        <v>-0.02903357449453858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003420218625957625</v>
+        <v>-0.01059240794762531</v>
       </c>
       <c r="C66">
-        <v>0.1665861727498593</v>
+        <v>-0.1633212148280564</v>
       </c>
       <c r="D66">
-        <v>0.0008149738592316097</v>
+        <v>-0.03991846870946312</v>
       </c>
       <c r="E66">
-        <v>-0.116104505702775</v>
+        <v>0.007349161313669243</v>
       </c>
       <c r="F66">
-        <v>-0.02444880646065632</v>
+        <v>0.02535560911807098</v>
       </c>
       <c r="G66">
-        <v>-0.05972078181709452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04294947230663944</v>
+      </c>
+      <c r="H66">
+        <v>-0.06226798891430396</v>
+      </c>
+      <c r="I66">
+        <v>0.05270010318129014</v>
+      </c>
+      <c r="J66">
+        <v>-0.01924490267981743</v>
+      </c>
+      <c r="K66">
+        <v>0.0369853643246402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02444915586142429</v>
+        <v>-0.02116462944719801</v>
       </c>
       <c r="C67">
-        <v>0.0353237018654109</v>
+        <v>-0.05222341306824035</v>
       </c>
       <c r="D67">
-        <v>0.0518358543369314</v>
+        <v>-0.03931744882493452</v>
       </c>
       <c r="E67">
-        <v>0.01343301913958255</v>
+        <v>-0.02414906988883672</v>
       </c>
       <c r="F67">
-        <v>-0.03331400673179389</v>
+        <v>-0.02545012202872326</v>
       </c>
       <c r="G67">
-        <v>-0.01634491921183044</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02701365339230237</v>
+      </c>
+      <c r="H67">
+        <v>-0.06245753701882027</v>
+      </c>
+      <c r="I67">
+        <v>-0.0478007849343695</v>
+      </c>
+      <c r="J67">
+        <v>0.05081617464314214</v>
+      </c>
+      <c r="K67">
+        <v>0.03777742021619408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.28129400276082</v>
+        <v>-0.2948106997326205</v>
       </c>
       <c r="C68">
-        <v>-0.03376702022053208</v>
+        <v>0.05848022725775964</v>
       </c>
       <c r="D68">
-        <v>-0.02212996837388789</v>
+        <v>0.02045807896758406</v>
       </c>
       <c r="E68">
-        <v>0.009182837030338526</v>
+        <v>0.004293865568284219</v>
       </c>
       <c r="F68">
-        <v>0.02313999158386365</v>
+        <v>0.01891558781163048</v>
       </c>
       <c r="G68">
-        <v>0.0312778782852722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.04024189274149696</v>
+      </c>
+      <c r="H68">
+        <v>-0.02844223327205173</v>
+      </c>
+      <c r="I68">
+        <v>-0.037576001990926</v>
+      </c>
+      <c r="J68">
+        <v>-0.01306170910287061</v>
+      </c>
+      <c r="K68">
+        <v>0.06755871934284555</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.004174038496261507</v>
+        <v>-0.006367904206875928</v>
       </c>
       <c r="C69">
-        <v>0.1010696840135302</v>
+        <v>-0.0720967550515382</v>
       </c>
       <c r="D69">
-        <v>0.05908771907421111</v>
+        <v>-0.02952122429155985</v>
       </c>
       <c r="E69">
-        <v>0.04427038114151142</v>
+        <v>0.006099210357077058</v>
       </c>
       <c r="F69">
-        <v>0.002493386131125368</v>
+        <v>-0.02089666932491845</v>
       </c>
       <c r="G69">
-        <v>-0.003181722688220799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.004440402655449155</v>
+      </c>
+      <c r="H69">
+        <v>-0.05489623292840103</v>
+      </c>
+      <c r="I69">
+        <v>-0.02503901451590817</v>
+      </c>
+      <c r="J69">
+        <v>-0.0096749789810069</v>
+      </c>
+      <c r="K69">
+        <v>0.03519052523978419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2828232243593042</v>
+        <v>-0.2768691961646126</v>
       </c>
       <c r="C71">
-        <v>-0.05300258857124824</v>
+        <v>0.07260135609635771</v>
       </c>
       <c r="D71">
-        <v>-0.02907529717313328</v>
+        <v>0.01854303457227776</v>
       </c>
       <c r="E71">
-        <v>-0.01063549923746833</v>
+        <v>-0.03480150953271673</v>
       </c>
       <c r="F71">
-        <v>-0.006022899054062448</v>
+        <v>0.04205284978311619</v>
       </c>
       <c r="G71">
-        <v>0.03344026472359644</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02367139000319803</v>
+      </c>
+      <c r="H71">
+        <v>-0.04960411228031045</v>
+      </c>
+      <c r="I71">
+        <v>-0.1234262490339221</v>
+      </c>
+      <c r="J71">
+        <v>-0.04535488553983596</v>
+      </c>
+      <c r="K71">
+        <v>0.04675970035615058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03512385161845347</v>
+        <v>-0.0533473202820911</v>
       </c>
       <c r="C72">
-        <v>0.152218359188055</v>
+        <v>-0.1393398058382029</v>
       </c>
       <c r="D72">
-        <v>0.03801497366080394</v>
+        <v>-0.03502150556019613</v>
       </c>
       <c r="E72">
-        <v>-0.1020998739331412</v>
+        <v>0.002242289557390972</v>
       </c>
       <c r="F72">
-        <v>-0.09440711843598203</v>
+        <v>-0.02213162263380715</v>
       </c>
       <c r="G72">
-        <v>-0.05599133402571003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05371870357494156</v>
+      </c>
+      <c r="H72">
+        <v>-0.02084479353000677</v>
+      </c>
+      <c r="I72">
+        <v>0.1255833603960291</v>
+      </c>
+      <c r="J72">
+        <v>-0.07938111998899663</v>
+      </c>
+      <c r="K72">
+        <v>0.0202173944906058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07417311500769858</v>
+        <v>-0.1480715891826332</v>
       </c>
       <c r="C73">
-        <v>0.136972887145923</v>
+        <v>-0.1958568883543143</v>
       </c>
       <c r="D73">
-        <v>0.08605432312651863</v>
+        <v>-0.06543091115438034</v>
       </c>
       <c r="E73">
-        <v>-0.06282816218027736</v>
+        <v>0.06989579094708005</v>
       </c>
       <c r="F73">
-        <v>-0.1988820246574526</v>
+        <v>-0.162518182737623</v>
       </c>
       <c r="G73">
-        <v>-0.3907375315657453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.422718102506436</v>
+      </c>
+      <c r="H73">
+        <v>0.305674078032123</v>
+      </c>
+      <c r="I73">
+        <v>-0.07767130185111464</v>
+      </c>
+      <c r="J73">
+        <v>-0.07590492520861276</v>
+      </c>
+      <c r="K73">
+        <v>-0.08423122540661462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01543055195325654</v>
+        <v>-0.03660446324415863</v>
       </c>
       <c r="C74">
-        <v>0.1117149616936175</v>
+        <v>-0.1101087424674105</v>
       </c>
       <c r="D74">
-        <v>0.06605016909547402</v>
+        <v>-0.04246431127772161</v>
       </c>
       <c r="E74">
-        <v>0.09405208968304858</v>
+        <v>0.01067136763077263</v>
       </c>
       <c r="F74">
-        <v>0.01539238974837038</v>
+        <v>-0.06192585360695236</v>
       </c>
       <c r="G74">
-        <v>-0.01828330212384278</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05290969811315799</v>
+      </c>
+      <c r="H74">
+        <v>0.006463814680003901</v>
+      </c>
+      <c r="I74">
+        <v>0.002248004503571341</v>
+      </c>
+      <c r="J74">
+        <v>-0.02532524561932108</v>
+      </c>
+      <c r="K74">
+        <v>0.06882641445989381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05490718272499226</v>
+        <v>-0.05845051972419647</v>
       </c>
       <c r="C75">
-        <v>0.1743691400815098</v>
+        <v>-0.1764967092544569</v>
       </c>
       <c r="D75">
-        <v>0.09408789873827782</v>
+        <v>-0.08121581241461245</v>
       </c>
       <c r="E75">
-        <v>0.2390329830653089</v>
+        <v>-0.02826490516837857</v>
       </c>
       <c r="F75">
-        <v>0.02453993576220676</v>
+        <v>-0.1694332639347486</v>
       </c>
       <c r="G75">
-        <v>0.06169323860530135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1945354092853977</v>
+      </c>
+      <c r="H75">
+        <v>0.03968369312822458</v>
+      </c>
+      <c r="I75">
+        <v>-0.1230817897178084</v>
+      </c>
+      <c r="J75">
+        <v>0.06668343225744254</v>
+      </c>
+      <c r="K75">
+        <v>0.08486512387457931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03075668487155444</v>
+        <v>-0.04057783790564148</v>
       </c>
       <c r="C76">
-        <v>0.1215617095540753</v>
+        <v>-0.1282898091647096</v>
       </c>
       <c r="D76">
-        <v>0.06097852176166844</v>
+        <v>-0.06879076418210021</v>
       </c>
       <c r="E76">
-        <v>0.09733072204595232</v>
+        <v>0.01407401351133255</v>
       </c>
       <c r="F76">
-        <v>0.00761319039899024</v>
+        <v>-0.0937380204235925</v>
       </c>
       <c r="G76">
-        <v>-0.04709964651550453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05641380877769858</v>
+      </c>
+      <c r="H76">
+        <v>0.01808869986341602</v>
+      </c>
+      <c r="I76">
+        <v>-0.0006586960858748059</v>
+      </c>
+      <c r="J76">
+        <v>0.03029232226404097</v>
+      </c>
+      <c r="K76">
+        <v>0.1305790674031269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.06302046870429164</v>
+        <v>-0.04121591827299387</v>
       </c>
       <c r="C77">
-        <v>0.2568633139097772</v>
+        <v>-0.3555008537101637</v>
       </c>
       <c r="D77">
-        <v>-0.8620426820551521</v>
+        <v>0.9182903836782851</v>
       </c>
       <c r="E77">
-        <v>0.2848734327667787</v>
+        <v>-0.02928038966107881</v>
       </c>
       <c r="F77">
-        <v>-0.1759953190814899</v>
+        <v>-0.09308137188993894</v>
       </c>
       <c r="G77">
-        <v>-0.07883199170274253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0223651605104987</v>
+      </c>
+      <c r="H77">
+        <v>-0.05993965644970631</v>
+      </c>
+      <c r="I77">
+        <v>-0.003592726973129909</v>
+      </c>
+      <c r="J77">
+        <v>0.004977283550136614</v>
+      </c>
+      <c r="K77">
+        <v>0.009620086692206924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03497048954256589</v>
+        <v>-0.0317738876573382</v>
       </c>
       <c r="C78">
-        <v>0.1425108926255741</v>
+        <v>-0.1117858202088354</v>
       </c>
       <c r="D78">
-        <v>0.07248459160432719</v>
+        <v>-0.09024265237992736</v>
       </c>
       <c r="E78">
-        <v>-0.04738544944861915</v>
+        <v>0.03639152738878084</v>
       </c>
       <c r="F78">
-        <v>0.1574442407574018</v>
+        <v>0.002267984121882862</v>
       </c>
       <c r="G78">
-        <v>0.01009993738843429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.09133751367392938</v>
+      </c>
+      <c r="H78">
+        <v>-0.04911508724680494</v>
+      </c>
+      <c r="I78">
+        <v>0.09437455204531393</v>
+      </c>
+      <c r="J78">
+        <v>-0.4159982102245727</v>
+      </c>
+      <c r="K78">
+        <v>-0.07285359923505211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02904216307537396</v>
+        <v>-0.05163781219199987</v>
       </c>
       <c r="C79">
-        <v>0.2119764337234378</v>
+        <v>-0.1565334612590552</v>
       </c>
       <c r="D79">
-        <v>0.1197147940909526</v>
+        <v>-0.06751295865831274</v>
       </c>
       <c r="E79">
-        <v>0.212786328459272</v>
+        <v>0.03181280315351184</v>
       </c>
       <c r="F79">
-        <v>0.1220918294107852</v>
+        <v>-0.1141922996947309</v>
       </c>
       <c r="G79">
-        <v>0.04589252722195736</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2305107748294004</v>
+      </c>
+      <c r="H79">
+        <v>0.01123557584509408</v>
+      </c>
+      <c r="I79">
+        <v>-0.08716210495701378</v>
+      </c>
+      <c r="J79">
+        <v>-0.06366933935275895</v>
+      </c>
+      <c r="K79">
+        <v>0.05504025108389205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.00979144149553602</v>
+        <v>-0.0186215567888844</v>
       </c>
       <c r="C80">
-        <v>0.05551746201083787</v>
+        <v>-0.05579323438610576</v>
       </c>
       <c r="D80">
-        <v>0.04670880396037842</v>
+        <v>-0.03897150025094497</v>
       </c>
       <c r="E80">
-        <v>0.009315759595470605</v>
+        <v>0.04481640170572686</v>
       </c>
       <c r="F80">
-        <v>0.01869962155551868</v>
+        <v>0.03755265900978962</v>
       </c>
       <c r="G80">
-        <v>-0.01896047653218227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04470416247968062</v>
+      </c>
+      <c r="H80">
+        <v>0.03465866178251709</v>
+      </c>
+      <c r="I80">
+        <v>-0.05297919877828726</v>
+      </c>
+      <c r="J80">
+        <v>0.0774050136048996</v>
+      </c>
+      <c r="K80">
+        <v>0.04328087547225604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.007303830130867078</v>
+        <v>-0.01401502166453775</v>
       </c>
       <c r="C81">
-        <v>0.1148585208812718</v>
+        <v>-0.109944285419009</v>
       </c>
       <c r="D81">
-        <v>0.08433979846931085</v>
+        <v>-0.05276077220569282</v>
       </c>
       <c r="E81">
-        <v>0.1532285731985241</v>
+        <v>0.01970511049922018</v>
       </c>
       <c r="F81">
-        <v>0.03427817313388264</v>
+        <v>-0.07042299209329474</v>
       </c>
       <c r="G81">
-        <v>-0.01455084846310863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1160125346107804</v>
+      </c>
+      <c r="H81">
+        <v>-0.0427819655161361</v>
+      </c>
+      <c r="I81">
+        <v>-0.05485940201701578</v>
+      </c>
+      <c r="J81">
+        <v>0.01532015831929302</v>
+      </c>
+      <c r="K81">
+        <v>0.09978230300670825</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0323154858505511</v>
+        <v>-0.04481240511377192</v>
       </c>
       <c r="C82">
-        <v>0.1160609413746241</v>
+        <v>-0.1148221139445618</v>
       </c>
       <c r="D82">
-        <v>0.07987216978894902</v>
+        <v>-0.06509875422027207</v>
       </c>
       <c r="E82">
-        <v>0.1099624559462592</v>
+        <v>0.01840905749277255</v>
       </c>
       <c r="F82">
-        <v>-0.01382244116746812</v>
+        <v>-0.08651017464731811</v>
       </c>
       <c r="G82">
-        <v>-0.04044743124872392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07397755093410101</v>
+      </c>
+      <c r="H82">
+        <v>-0.006977848241795384</v>
+      </c>
+      <c r="I82">
+        <v>-0.02045246487245973</v>
+      </c>
+      <c r="J82">
+        <v>0.00640139463618535</v>
+      </c>
+      <c r="K82">
+        <v>0.1075903577155691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003983715672074953</v>
+        <v>0.00293212672586431</v>
       </c>
       <c r="C83">
-        <v>0.02729878184778512</v>
+        <v>0.002907102676268749</v>
       </c>
       <c r="D83">
-        <v>-0.1903509852289082</v>
+        <v>0.06378664003067024</v>
       </c>
       <c r="E83">
-        <v>-0.08613654953202352</v>
+        <v>0.9225225073400614</v>
       </c>
       <c r="F83">
-        <v>0.8385769680130485</v>
+        <v>0.2538451128062445</v>
       </c>
       <c r="G83">
-        <v>-0.3667290279050052</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1029274372446891</v>
+      </c>
+      <c r="H83">
+        <v>0.08335117333117457</v>
+      </c>
+      <c r="I83">
+        <v>0.05935964736860239</v>
+      </c>
+      <c r="J83">
+        <v>-0.005953802807899684</v>
+      </c>
+      <c r="K83">
+        <v>0.1067540844535717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0005677416338593206</v>
+        <v>0.001962101512586775</v>
       </c>
       <c r="C84">
-        <v>0.04970882623995898</v>
+        <v>-0.04419043623969702</v>
       </c>
       <c r="D84">
-        <v>0.01895032040294618</v>
+        <v>-0.06010824717362043</v>
       </c>
       <c r="E84">
-        <v>-0.08639250207160215</v>
+        <v>-0.04463077281509861</v>
       </c>
       <c r="F84">
-        <v>-0.01071637431630319</v>
+        <v>0.0861281353549916</v>
       </c>
       <c r="G84">
-        <v>0.1406371285145542</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04015292709104749</v>
+      </c>
+      <c r="H84">
+        <v>-0.06812320286764589</v>
+      </c>
+      <c r="I84">
+        <v>0.1121425333794524</v>
+      </c>
+      <c r="J84">
+        <v>0.04715920295498398</v>
+      </c>
+      <c r="K84">
+        <v>0.0913542584980141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.02280912179304622</v>
+        <v>-0.02714782218176981</v>
       </c>
       <c r="C85">
-        <v>0.1475217272716593</v>
+        <v>-0.1230182090985823</v>
       </c>
       <c r="D85">
-        <v>0.089476583207202</v>
+        <v>-0.07819377431129407</v>
       </c>
       <c r="E85">
-        <v>0.2001451152050288</v>
+        <v>0.02534215216695813</v>
       </c>
       <c r="F85">
-        <v>0.0709172037617864</v>
+        <v>-0.160347273011601</v>
       </c>
       <c r="G85">
-        <v>0.0262719574288944</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1670358252676284</v>
+      </c>
+      <c r="H85">
+        <v>0.03822481934638811</v>
+      </c>
+      <c r="I85">
+        <v>-0.08047617732636415</v>
+      </c>
+      <c r="J85">
+        <v>0.02600861553556455</v>
+      </c>
+      <c r="K85">
+        <v>0.1818050972608909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01942737831473315</v>
+        <v>-0.01654594023870455</v>
       </c>
       <c r="C86">
-        <v>0.06471311037110954</v>
+        <v>-0.0809317097451271</v>
       </c>
       <c r="D86">
-        <v>-0.03834240755035875</v>
+        <v>-0.02136316668159189</v>
       </c>
       <c r="E86">
-        <v>-0.05054344896680064</v>
+        <v>-0.0166039088640978</v>
       </c>
       <c r="F86">
-        <v>-0.0435484098737004</v>
+        <v>0.08497547052842999</v>
       </c>
       <c r="G86">
-        <v>0.01766663097651257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07392126523777154</v>
+      </c>
+      <c r="H86">
+        <v>-0.02456450509270644</v>
+      </c>
+      <c r="I86">
+        <v>-0.1424714067499013</v>
+      </c>
+      <c r="J86">
+        <v>-0.143517717129563</v>
+      </c>
+      <c r="K86">
+        <v>-0.08033771116971131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.0529197772315939</v>
+        <v>-0.02279272771989006</v>
       </c>
       <c r="C87">
-        <v>0.1404377599253425</v>
+        <v>-0.1180246591325228</v>
       </c>
       <c r="D87">
-        <v>0.007703417761203983</v>
+        <v>-0.01387750227093919</v>
       </c>
       <c r="E87">
-        <v>-0.109668866554429</v>
+        <v>-0.02095826566913444</v>
       </c>
       <c r="F87">
-        <v>0.02226073000605633</v>
+        <v>0.07887771330973707</v>
       </c>
       <c r="G87">
-        <v>0.00253916220219775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.001143498284444567</v>
+      </c>
+      <c r="H87">
+        <v>-0.03953823777688068</v>
+      </c>
+      <c r="I87">
+        <v>0.1036939662687887</v>
+      </c>
+      <c r="J87">
+        <v>-0.08134412602544974</v>
+      </c>
+      <c r="K87">
+        <v>0.09110005526385026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.005391570365558591</v>
+        <v>-0.03547661894666933</v>
       </c>
       <c r="C88">
-        <v>0.04910577374417024</v>
+        <v>-0.07011840674884873</v>
       </c>
       <c r="D88">
-        <v>0.05308082521450407</v>
+        <v>-0.04197326440052218</v>
       </c>
       <c r="E88">
-        <v>0.04317412535982849</v>
+        <v>-0.01158196934766894</v>
       </c>
       <c r="F88">
-        <v>-0.04624607366797538</v>
+        <v>-0.01916344760564494</v>
       </c>
       <c r="G88">
-        <v>-0.01298638596477042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02115091306343066</v>
+      </c>
+      <c r="H88">
+        <v>0.0007752885682961187</v>
+      </c>
+      <c r="I88">
+        <v>-0.02606422085566168</v>
+      </c>
+      <c r="J88">
+        <v>0.07694714484618986</v>
+      </c>
+      <c r="K88">
+        <v>0.07836879129326471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3911353027438448</v>
+        <v>-0.394021394282676</v>
       </c>
       <c r="C89">
-        <v>-0.08901231104621364</v>
+        <v>0.1058915383191446</v>
       </c>
       <c r="D89">
-        <v>0.1083396270478517</v>
+        <v>0.03016501028974572</v>
       </c>
       <c r="E89">
-        <v>-0.04661651133011883</v>
+        <v>-0.03986486930455762</v>
       </c>
       <c r="F89">
-        <v>0.06013983151465359</v>
+        <v>0.05193458301541323</v>
       </c>
       <c r="G89">
-        <v>0.07327198594581065</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.003519114274034805</v>
+      </c>
+      <c r="H89">
+        <v>-0.001756080600884141</v>
+      </c>
+      <c r="I89">
+        <v>0.74064485085698</v>
+      </c>
+      <c r="J89">
+        <v>0.01953059539111142</v>
+      </c>
+      <c r="K89">
+        <v>-0.01403492119863707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3012249050074756</v>
+        <v>-0.3149828678360952</v>
       </c>
       <c r="C90">
-        <v>-0.01270576099192451</v>
+        <v>0.05864347631769465</v>
       </c>
       <c r="D90">
-        <v>-0.001229920452560254</v>
+        <v>0.007721243662215636</v>
       </c>
       <c r="E90">
-        <v>-0.03499917465581131</v>
+        <v>0.01651911173544812</v>
       </c>
       <c r="F90">
-        <v>0.06336161715940943</v>
+        <v>0.03187829195039404</v>
       </c>
       <c r="G90">
-        <v>-0.02790546766186604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02875267715151334</v>
+      </c>
+      <c r="H90">
+        <v>-0.01655387996016705</v>
+      </c>
+      <c r="I90">
+        <v>-0.07754894460775517</v>
+      </c>
+      <c r="J90">
+        <v>-0.0278516634790714</v>
+      </c>
+      <c r="K90">
+        <v>0.02296930550845138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02670492217784534</v>
+        <v>-0.05064037717622851</v>
       </c>
       <c r="C91">
-        <v>0.1165120236593326</v>
+        <v>-0.1019066115118596</v>
       </c>
       <c r="D91">
-        <v>0.05155583579926076</v>
+        <v>-0.04333127606137245</v>
       </c>
       <c r="E91">
-        <v>0.1236039836874439</v>
+        <v>0.04650435765241234</v>
       </c>
       <c r="F91">
-        <v>0.04186113558690596</v>
+        <v>-0.06853232489485631</v>
       </c>
       <c r="G91">
-        <v>0.002104187136628732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.09314422793850001</v>
+      </c>
+      <c r="H91">
+        <v>0.02112739804532027</v>
+      </c>
+      <c r="I91">
+        <v>-0.009907303474840727</v>
+      </c>
+      <c r="J91">
+        <v>0.04122115321606962</v>
+      </c>
+      <c r="K91">
+        <v>0.04752881511556719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3783637228458244</v>
+        <v>-0.3560481429721698</v>
       </c>
       <c r="C92">
-        <v>-0.1077047103946301</v>
+        <v>0.1232124781803923</v>
       </c>
       <c r="D92">
-        <v>-0.01811143540461844</v>
+        <v>0.04994510722434176</v>
       </c>
       <c r="E92">
-        <v>-0.01034670479537415</v>
+        <v>-0.05498318253513264</v>
       </c>
       <c r="F92">
-        <v>-0.0915399478482533</v>
+        <v>0.04755395947103732</v>
       </c>
       <c r="G92">
-        <v>0.05671222663610986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02052477496661645</v>
+      </c>
+      <c r="H92">
+        <v>-0.08273637359093398</v>
+      </c>
+      <c r="I92">
+        <v>-0.1607622181722942</v>
+      </c>
+      <c r="J92">
+        <v>0.00786616661685167</v>
+      </c>
+      <c r="K92">
+        <v>-0.05152127654536892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.300611764167511</v>
+        <v>-0.3114483549391331</v>
       </c>
       <c r="C93">
-        <v>-0.07867335938905015</v>
+        <v>0.1088344918515689</v>
       </c>
       <c r="D93">
-        <v>0.0256978108708598</v>
+        <v>0.001843207461516477</v>
       </c>
       <c r="E93">
-        <v>-0.02856410365974706</v>
+        <v>-0.006347630490650041</v>
       </c>
       <c r="F93">
-        <v>0.03319400233282294</v>
+        <v>0.03109412785816507</v>
       </c>
       <c r="G93">
-        <v>0.04216960623043033</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05078460160659332</v>
+      </c>
+      <c r="H93">
+        <v>-0.03725349964677054</v>
+      </c>
+      <c r="I93">
+        <v>-0.1064276913072109</v>
+      </c>
+      <c r="J93">
+        <v>-0.005179379583841254</v>
+      </c>
+      <c r="K93">
+        <v>0.03900609932354738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.06205388368265469</v>
+        <v>-0.07531601961826533</v>
       </c>
       <c r="C94">
-        <v>0.2295558163981023</v>
+        <v>-0.1823209140530648</v>
       </c>
       <c r="D94">
-        <v>0.1716831868155774</v>
+        <v>-0.1038019255774833</v>
       </c>
       <c r="E94">
-        <v>0.4143192650059278</v>
+        <v>0.03670813053687816</v>
       </c>
       <c r="F94">
-        <v>0.1729517778419987</v>
+        <v>-0.2405305088044334</v>
       </c>
       <c r="G94">
-        <v>0.3023426041239944</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4819112357284361</v>
+      </c>
+      <c r="H94">
+        <v>0.2070807955020935</v>
+      </c>
+      <c r="I94">
+        <v>0.1509553226901502</v>
+      </c>
+      <c r="J94">
+        <v>0.2755579756202568</v>
+      </c>
+      <c r="K94">
+        <v>-0.4885978580243948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.03796003294907414</v>
+        <v>-0.03735519134755744</v>
       </c>
       <c r="C95">
-        <v>0.08755931939749874</v>
+        <v>-0.1249279775889407</v>
       </c>
       <c r="D95">
-        <v>0.01845439819256017</v>
+        <v>-0.05228099748892647</v>
       </c>
       <c r="E95">
-        <v>-0.01137025436010889</v>
+        <v>-0.02284944807577143</v>
       </c>
       <c r="F95">
-        <v>-0.06908784720863027</v>
+        <v>-0.05913493517219752</v>
       </c>
       <c r="G95">
-        <v>-0.1619081054489593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.101344777084889</v>
+      </c>
+      <c r="H95">
+        <v>-0.06700386370649468</v>
+      </c>
+      <c r="I95">
+        <v>0.1478000225523469</v>
+      </c>
+      <c r="J95">
+        <v>0.2194563423514413</v>
+      </c>
+      <c r="K95">
+        <v>0.3280958812923067</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01070758037454112</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01305697626648323</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01099750866300968</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.03421735874592165</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.005710609746574367</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03320936539081185</v>
+      </c>
+      <c r="H97">
+        <v>-0.03236719510001366</v>
+      </c>
+      <c r="I97">
+        <v>0.02916074740158473</v>
+      </c>
+      <c r="J97">
+        <v>0.004558563836095203</v>
+      </c>
+      <c r="K97">
+        <v>-0.0503265225903983</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08248725465668967</v>
+        <v>-0.1315579735149756</v>
       </c>
       <c r="C98">
-        <v>0.1495461207738934</v>
+        <v>-0.1644732662240107</v>
       </c>
       <c r="D98">
-        <v>0.06928376031478714</v>
+        <v>-0.07577951672622665</v>
       </c>
       <c r="E98">
-        <v>-0.08437656289817419</v>
+        <v>0.06691902878099759</v>
       </c>
       <c r="F98">
-        <v>-0.1091214297889648</v>
+        <v>-0.1312137414797479</v>
       </c>
       <c r="G98">
-        <v>-0.2423272260485495</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3568411591646571</v>
+      </c>
+      <c r="H98">
+        <v>0.3262808876506836</v>
+      </c>
+      <c r="I98">
+        <v>-0.09898043654864229</v>
+      </c>
+      <c r="J98">
+        <v>-0.09129111642373286</v>
+      </c>
+      <c r="K98">
+        <v>-0.1912254505773678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.01069520209858106</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.02441035203005487</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009222339424686237</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01816664496129343</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.0348835647585293</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01732945521934418</v>
+      </c>
+      <c r="H99">
+        <v>-0.08407428932399173</v>
+      </c>
+      <c r="I99">
+        <v>0.01997239745249875</v>
+      </c>
+      <c r="J99">
+        <v>0.0191910443130591</v>
+      </c>
+      <c r="K99">
+        <v>-0.3470471055434909</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.0143105904186344</v>
+        <v>-0.01342152841573526</v>
       </c>
       <c r="C101">
-        <v>0.05845413761250178</v>
+        <v>-0.07502940956182076</v>
       </c>
       <c r="D101">
-        <v>0.02675605286640917</v>
+        <v>-0.04750632410744845</v>
       </c>
       <c r="E101">
-        <v>-0.08458803479570784</v>
+        <v>0.04777529310425625</v>
       </c>
       <c r="F101">
-        <v>-0.02525399572184375</v>
+        <v>0.04166015481023277</v>
       </c>
       <c r="G101">
-        <v>-0.07203258170257422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1227038687812158</v>
+      </c>
+      <c r="H101">
+        <v>-0.2878852573052387</v>
+      </c>
+      <c r="I101">
+        <v>0.04377753181565649</v>
+      </c>
+      <c r="J101">
+        <v>0.1882083477366437</v>
+      </c>
+      <c r="K101">
+        <v>-0.2268194849136733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.00856505639744218</v>
+        <v>-0.00355220457585339</v>
       </c>
       <c r="C102">
-        <v>0.06144559527511467</v>
+        <v>-0.02567026996609625</v>
       </c>
       <c r="D102">
-        <v>0.02371021102038681</v>
+        <v>-0.007584327620303733</v>
       </c>
       <c r="E102">
-        <v>0.05967746133982328</v>
+        <v>0.009954709167210331</v>
       </c>
       <c r="F102">
-        <v>0.02504570602844867</v>
+        <v>-0.01881386908447759</v>
       </c>
       <c r="G102">
-        <v>-0.0005859597393635324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03500404797935718</v>
+      </c>
+      <c r="H102">
+        <v>-0.008118366812506141</v>
+      </c>
+      <c r="I102">
+        <v>0.0139315055773311</v>
+      </c>
+      <c r="J102">
+        <v>-0.005085706471513914</v>
+      </c>
+      <c r="K102">
+        <v>-0.01907852721781149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
